--- a/data/NFLHome_percent_Wins.xlsx
+++ b/data/NFLHome_percent_Wins.xlsx
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,13 +609,13 @@
         <v>0.75</v>
       </c>
       <c r="J2">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="K2">
         <v>0.5</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="M2">
         <v>0.625</v>
@@ -770,104 +770,104 @@
         <v>0.5</v>
       </c>
       <c r="G3">
+        <v>0.875</v>
+      </c>
+      <c r="H3">
+        <v>0.75</v>
+      </c>
+      <c r="I3">
+        <v>0.75</v>
+      </c>
+      <c r="J3">
+        <v>0.25</v>
+      </c>
+      <c r="K3">
+        <v>0.625</v>
+      </c>
+      <c r="L3">
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <v>0.5</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="P3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>0.375</v>
+      </c>
+      <c r="R3">
+        <v>0.5</v>
+      </c>
+      <c r="S3">
+        <v>0.25</v>
+      </c>
+      <c r="T3">
+        <v>0.625</v>
+      </c>
+      <c r="U3">
+        <v>0.5</v>
+      </c>
+      <c r="V3">
+        <v>0.5</v>
+      </c>
+      <c r="W3">
+        <v>0.5</v>
+      </c>
+      <c r="X3">
+        <v>0.375</v>
+      </c>
+      <c r="Y3">
+        <v>0.625</v>
+      </c>
+      <c r="Z3">
+        <v>0.625</v>
+      </c>
+      <c r="AA3">
+        <v>0.625</v>
+      </c>
+      <c r="AB3">
+        <v>0.125</v>
+      </c>
+      <c r="AC3">
+        <v>0.375</v>
+      </c>
+      <c r="AD3">
+        <v>0.25</v>
+      </c>
+      <c r="AE3">
+        <v>0.75</v>
+      </c>
+      <c r="AF3">
+        <v>0.375</v>
+      </c>
+      <c r="AG3">
+        <v>0.25</v>
+      </c>
+      <c r="AH3">
+        <v>0.75</v>
+      </c>
+      <c r="AI3">
+        <v>0.75</v>
+      </c>
+      <c r="AJ3">
+        <v>0.875</v>
+      </c>
+      <c r="AK3">
+        <v>0.875</v>
+      </c>
+      <c r="AL3">
         <v>1</v>
       </c>
-      <c r="H3">
-        <v>0.75</v>
-      </c>
-      <c r="I3">
-        <v>0.875</v>
-      </c>
-      <c r="J3">
-        <v>0.25</v>
-      </c>
-      <c r="K3">
-        <v>0.625</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
-      <c r="M3">
-        <v>0.5</v>
-      </c>
-      <c r="N3">
-        <v>0.5</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
-      <c r="P3">
-        <v>0.5</v>
-      </c>
-      <c r="Q3">
-        <v>0.375</v>
-      </c>
-      <c r="R3">
-        <v>0.5</v>
-      </c>
-      <c r="S3">
-        <v>0.25</v>
-      </c>
-      <c r="T3">
-        <v>0.625</v>
-      </c>
-      <c r="U3">
-        <v>0.5</v>
-      </c>
-      <c r="V3">
-        <v>0.5</v>
-      </c>
-      <c r="W3">
-        <v>0.5</v>
-      </c>
-      <c r="X3">
-        <v>0.5</v>
-      </c>
-      <c r="Y3">
-        <v>0.625</v>
-      </c>
-      <c r="Z3">
-        <v>0.625</v>
-      </c>
-      <c r="AA3">
-        <v>0.625</v>
-      </c>
-      <c r="AB3">
-        <v>0.125</v>
-      </c>
-      <c r="AC3">
-        <v>0.375</v>
-      </c>
-      <c r="AD3">
-        <v>0.25</v>
-      </c>
-      <c r="AE3">
-        <v>0.75</v>
-      </c>
-      <c r="AF3">
-        <v>0.375</v>
-      </c>
-      <c r="AG3">
-        <v>0.25</v>
-      </c>
-      <c r="AH3">
-        <v>0.75</v>
-      </c>
-      <c r="AI3">
-        <v>0.75</v>
-      </c>
-      <c r="AJ3">
+      <c r="AM3">
         <v>1</v>
       </c>
-      <c r="AK3">
-        <v>1</v>
-      </c>
-      <c r="AL3">
-        <v>1.25</v>
-      </c>
-      <c r="AM3">
-        <v>1.125</v>
-      </c>
       <c r="AN3">
         <v>0.875</v>
       </c>
@@ -878,13 +878,13 @@
         <v>0.75</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AR3">
         <v>1</v>
       </c>
       <c r="AS3">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AT3">
         <v>0.5</v>
@@ -896,7 +896,7 @@
         <v>0.375</v>
       </c>
       <c r="AW3">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AX3">
         <v>0.5</v>
@@ -911,13 +911,13 @@
         <v>1</v>
       </c>
       <c r="BB3">
+        <v>0.875</v>
+      </c>
+      <c r="BC3">
+        <v>0.5</v>
+      </c>
+      <c r="BD3">
         <v>1</v>
-      </c>
-      <c r="BC3">
-        <v>0.5</v>
-      </c>
-      <c r="BD3">
-        <v>1.125</v>
       </c>
     </row>
     <row r="4" spans="1:56">
@@ -958,7 +958,7 @@
         <v>0.75</v>
       </c>
       <c r="M4">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="N4">
         <v>0.625</v>
@@ -988,16 +988,16 @@
         <v>0.5</v>
       </c>
       <c r="W4">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="Z4">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AA4">
         <v>0.625</v>
@@ -1009,38 +1009,38 @@
         <v>0.75</v>
       </c>
       <c r="AD4">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AE4">
+        <v>0.75</v>
+      </c>
+      <c r="AF4">
+        <v>0.75</v>
+      </c>
+      <c r="AG4">
+        <v>0.875</v>
+      </c>
+      <c r="AH4">
+        <v>0.875</v>
+      </c>
+      <c r="AI4">
+        <v>0.75</v>
+      </c>
+      <c r="AJ4">
+        <v>0.875</v>
+      </c>
+      <c r="AK4">
+        <v>0.75</v>
+      </c>
+      <c r="AL4">
+        <v>0.75</v>
+      </c>
+      <c r="AM4">
         <v>1</v>
       </c>
-      <c r="AF4">
-        <v>0.875</v>
-      </c>
-      <c r="AG4">
-        <v>0.875</v>
-      </c>
-      <c r="AH4">
+      <c r="AN4">
         <v>1</v>
       </c>
-      <c r="AI4">
-        <v>0.875</v>
-      </c>
-      <c r="AJ4">
-        <v>1.125</v>
-      </c>
-      <c r="AK4">
-        <v>0.75</v>
-      </c>
-      <c r="AL4">
-        <v>0.875</v>
-      </c>
-      <c r="AM4">
-        <v>1.125</v>
-      </c>
-      <c r="AN4">
-        <v>1.125</v>
-      </c>
       <c r="AO4">
         <v>0.375</v>
       </c>
@@ -1051,7 +1051,7 @@
         <v>0.875</v>
       </c>
       <c r="AR4">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AS4">
         <v>0.75</v>
@@ -1078,10 +1078,10 @@
         <v>0.625</v>
       </c>
       <c r="BA4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="BB4">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="BC4">
         <v>0.75</v>
@@ -1119,7 +1119,7 @@
         <v>0.75</v>
       </c>
       <c r="J5">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="K5">
         <v>0.625</v>
@@ -1173,16 +1173,16 @@
         <v>0.625</v>
       </c>
       <c r="AB5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AC5">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AD5">
         <v>0.75</v>
       </c>
       <c r="AE5">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AF5">
         <v>0.25</v>
@@ -1197,7 +1197,7 @@
         <v>0.5</v>
       </c>
       <c r="AJ5">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AK5">
         <v>0.375</v>
@@ -1340,7 +1340,7 @@
         <v>0.75</v>
       </c>
       <c r="AA6">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AB6">
         <v>0.875</v>
@@ -1349,13 +1349,13 @@
         <v>0.75</v>
       </c>
       <c r="AD6">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AE6">
         <v>0.5</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AG6">
         <v>0.75</v>
@@ -1403,7 +1403,7 @@
         <v>0.875</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AW6">
         <v>0.5</v>
@@ -1415,7 +1415,7 @@
         <v>0.625</v>
       </c>
       <c r="AZ6">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="BA6">
         <v>0.625</v>
@@ -1471,7 +1471,7 @@
         <v>0.625</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="O7">
         <v>0.875</v>
@@ -1501,10 +1501,10 @@
         <v>0.625</v>
       </c>
       <c r="X7">
-        <v>0.75</v>
+        <v>0.375</v>
       </c>
       <c r="Y7">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="Z7">
         <v>0.875</v>
@@ -1513,10 +1513,10 @@
         <v>0.625</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC7">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AD7">
         <v>0.5</v>
@@ -1528,7 +1528,7 @@
         <v>0.875</v>
       </c>
       <c r="AG7">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AH7">
         <v>0.75</v>
@@ -1552,7 +1552,7 @@
         <v>0.5</v>
       </c>
       <c r="AO7">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AP7">
         <v>0.5</v>
@@ -1662,10 +1662,10 @@
         <v>0.625</v>
       </c>
       <c r="U8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="V8">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="W8">
         <v>0.75</v>
@@ -1710,7 +1710,7 @@
         <v>0.625</v>
       </c>
       <c r="AK8">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AL8">
         <v>0.625</v>
@@ -1725,25 +1725,25 @@
         <v>0.5</v>
       </c>
       <c r="AP8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AQ8">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AS8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AT8">
-        <v>1.125</v>
+        <v>0.875</v>
       </c>
       <c r="AU8">
         <v>0.5</v>
       </c>
       <c r="AV8">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="AW8">
         <v>0.375</v>
@@ -1811,104 +1811,104 @@
         <v>0.625</v>
       </c>
       <c r="N9">
+        <v>0.875</v>
+      </c>
+      <c r="O9">
+        <v>0.875</v>
+      </c>
+      <c r="P9">
+        <v>0.625</v>
+      </c>
+      <c r="Q9">
+        <v>0.75</v>
+      </c>
+      <c r="R9">
+        <v>0.75</v>
+      </c>
+      <c r="S9">
+        <v>0.75</v>
+      </c>
+      <c r="T9">
+        <v>0.875</v>
+      </c>
+      <c r="U9">
         <v>1</v>
       </c>
-      <c r="O9">
-        <v>0.875</v>
-      </c>
-      <c r="P9">
-        <v>0.75</v>
-      </c>
-      <c r="Q9">
+      <c r="V9">
+        <v>0.75</v>
+      </c>
+      <c r="W9">
+        <v>0.625</v>
+      </c>
+      <c r="X9">
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <v>0.5</v>
+      </c>
+      <c r="Z9">
+        <v>0.75</v>
+      </c>
+      <c r="AA9">
+        <v>0.625</v>
+      </c>
+      <c r="AB9">
+        <v>0.5</v>
+      </c>
+      <c r="AC9">
+        <v>0.5</v>
+      </c>
+      <c r="AD9">
+        <v>0.5</v>
+      </c>
+      <c r="AE9">
+        <v>0.5</v>
+      </c>
+      <c r="AF9">
+        <v>0.75</v>
+      </c>
+      <c r="AG9">
+        <v>0.625</v>
+      </c>
+      <c r="AH9">
+        <v>0.875</v>
+      </c>
+      <c r="AI9">
+        <v>0.75</v>
+      </c>
+      <c r="AJ9">
+        <v>0.875</v>
+      </c>
+      <c r="AK9">
+        <v>0.75</v>
+      </c>
+      <c r="AL9">
+        <v>0.875</v>
+      </c>
+      <c r="AM9">
+        <v>0.875</v>
+      </c>
+      <c r="AN9">
+        <v>0.625</v>
+      </c>
+      <c r="AO9">
+        <v>0.25</v>
+      </c>
+      <c r="AP9">
+        <v>0.5</v>
+      </c>
+      <c r="AQ9">
+        <v>0.875</v>
+      </c>
+      <c r="AR9">
+        <v>0.75</v>
+      </c>
+      <c r="AS9">
+        <v>0.5</v>
+      </c>
+      <c r="AT9">
         <v>1</v>
       </c>
-      <c r="R9">
-        <v>0.75</v>
-      </c>
-      <c r="S9">
-        <v>0.75</v>
-      </c>
-      <c r="T9">
-        <v>1.125</v>
-      </c>
-      <c r="U9">
-        <v>1.25</v>
-      </c>
-      <c r="V9">
-        <v>0.75</v>
-      </c>
-      <c r="W9">
-        <v>0.625</v>
-      </c>
-      <c r="X9">
-        <v>0.5</v>
-      </c>
-      <c r="Y9">
-        <v>0.5</v>
-      </c>
-      <c r="Z9">
-        <v>0.75</v>
-      </c>
-      <c r="AA9">
-        <v>0.625</v>
-      </c>
-      <c r="AB9">
-        <v>0.5</v>
-      </c>
-      <c r="AC9">
-        <v>0.5</v>
-      </c>
-      <c r="AD9">
-        <v>0.5</v>
-      </c>
-      <c r="AE9">
-        <v>0.5</v>
-      </c>
-      <c r="AF9">
-        <v>0.75</v>
-      </c>
-      <c r="AG9">
-        <v>0.625</v>
-      </c>
-      <c r="AH9">
-        <v>0.875</v>
-      </c>
-      <c r="AI9">
-        <v>0.75</v>
-      </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
-      <c r="AK9">
-        <v>1</v>
-      </c>
-      <c r="AL9">
-        <v>1</v>
-      </c>
-      <c r="AM9">
-        <v>1</v>
-      </c>
-      <c r="AN9">
-        <v>0.625</v>
-      </c>
-      <c r="AO9">
-        <v>0.25</v>
-      </c>
-      <c r="AP9">
-        <v>0.5</v>
-      </c>
-      <c r="AQ9">
-        <v>1</v>
-      </c>
-      <c r="AR9">
-        <v>0.875</v>
-      </c>
-      <c r="AS9">
-        <v>0.5</v>
-      </c>
-      <c r="AT9">
-        <v>1.125</v>
-      </c>
       <c r="AU9">
         <v>0.625</v>
       </c>
@@ -1919,13 +1919,13 @@
         <v>0.875</v>
       </c>
       <c r="AX9">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AY9">
         <v>0.75</v>
       </c>
       <c r="AZ9">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="BA9">
         <v>0.875</v>
@@ -2208,7 +2208,7 @@
         <v>0.375</v>
       </c>
       <c r="AG11">
-        <v>1.125</v>
+        <v>1</v>
       </c>
       <c r="AH11">
         <v>0.375</v>
@@ -2327,10 +2327,10 @@
         <v>0.875</v>
       </c>
       <c r="P12">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="Q12">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="R12">
         <v>0.625</v>
@@ -2339,7 +2339,7 @@
         <v>0.875</v>
       </c>
       <c r="T12">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="U12">
         <v>0.5</v>
@@ -2360,7 +2360,7 @@
         <v>0.625</v>
       </c>
       <c r="AA12">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB12">
         <v>0.75</v>
@@ -2530,10 +2530,10 @@
         <v>0.75</v>
       </c>
       <c r="AA13">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AB13">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>0.625</v>
@@ -2545,7 +2545,7 @@
         <v>0.875</v>
       </c>
       <c r="AF13">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AG13">
         <v>0.625</v>
@@ -2554,7 +2554,7 @@
         <v>0.5</v>
       </c>
       <c r="AI13">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="AJ13">
         <v>0.5</v>
@@ -2575,7 +2575,7 @@
         <v>0.5</v>
       </c>
       <c r="AP13">
-        <v>0.875</v>
+        <v>0.625</v>
       </c>
       <c r="AQ13">
         <v>0.625</v>
@@ -2608,7 +2608,7 @@
         <v>0.625</v>
       </c>
       <c r="BA13">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
       <c r="BB13">
         <v>0.75</v>
@@ -2618,176 +2618,6 @@
       </c>
       <c r="BD13">
         <v>0.375</v>
-      </c>
-    </row>
-    <row r="14" spans="1:56">
-      <c r="A14" s="1">
-        <v>0</v>
-      </c>
-      <c r="B14">
-        <v>0.125</v>
-      </c>
-      <c r="C14">
-        <v>0.125</v>
-      </c>
-      <c r="D14">
-        <v>0.125</v>
-      </c>
-      <c r="E14">
-        <v>0.125</v>
-      </c>
-      <c r="F14">
-        <v>0.125</v>
-      </c>
-      <c r="G14">
-        <v>0.125</v>
-      </c>
-      <c r="H14">
-        <v>0.125</v>
-      </c>
-      <c r="I14">
-        <v>0.125</v>
-      </c>
-      <c r="J14">
-        <v>0.125</v>
-      </c>
-      <c r="K14">
-        <v>0.125</v>
-      </c>
-      <c r="L14">
-        <v>0.125</v>
-      </c>
-      <c r="M14">
-        <v>0.125</v>
-      </c>
-      <c r="N14">
-        <v>0.125</v>
-      </c>
-      <c r="O14">
-        <v>0.125</v>
-      </c>
-      <c r="P14">
-        <v>0.125</v>
-      </c>
-      <c r="Q14">
-        <v>0.125</v>
-      </c>
-      <c r="R14">
-        <v>0.125</v>
-      </c>
-      <c r="S14">
-        <v>0.125</v>
-      </c>
-      <c r="T14">
-        <v>0.125</v>
-      </c>
-      <c r="U14">
-        <v>0.125</v>
-      </c>
-      <c r="V14">
-        <v>0.125</v>
-      </c>
-      <c r="W14">
-        <v>0.125</v>
-      </c>
-      <c r="X14">
-        <v>0.125</v>
-      </c>
-      <c r="Y14">
-        <v>0.125</v>
-      </c>
-      <c r="Z14">
-        <v>0.125</v>
-      </c>
-      <c r="AA14">
-        <v>0.125</v>
-      </c>
-      <c r="AB14">
-        <v>0.125</v>
-      </c>
-      <c r="AC14">
-        <v>0.125</v>
-      </c>
-      <c r="AD14">
-        <v>0.125</v>
-      </c>
-      <c r="AE14">
-        <v>0.125</v>
-      </c>
-      <c r="AF14">
-        <v>0.125</v>
-      </c>
-      <c r="AG14">
-        <v>0.125</v>
-      </c>
-      <c r="AH14">
-        <v>0.125</v>
-      </c>
-      <c r="AI14">
-        <v>0.125</v>
-      </c>
-      <c r="AJ14">
-        <v>0.125</v>
-      </c>
-      <c r="AK14">
-        <v>0.125</v>
-      </c>
-      <c r="AL14">
-        <v>0.125</v>
-      </c>
-      <c r="AM14">
-        <v>0.125</v>
-      </c>
-      <c r="AN14">
-        <v>0.125</v>
-      </c>
-      <c r="AO14">
-        <v>0.125</v>
-      </c>
-      <c r="AP14">
-        <v>0.125</v>
-      </c>
-      <c r="AQ14">
-        <v>0.125</v>
-      </c>
-      <c r="AR14">
-        <v>0.125</v>
-      </c>
-      <c r="AS14">
-        <v>0.125</v>
-      </c>
-      <c r="AT14">
-        <v>0.125</v>
-      </c>
-      <c r="AU14">
-        <v>0.125</v>
-      </c>
-      <c r="AV14">
-        <v>0.125</v>
-      </c>
-      <c r="AW14">
-        <v>0.125</v>
-      </c>
-      <c r="AX14">
-        <v>0.125</v>
-      </c>
-      <c r="AY14">
-        <v>0.125</v>
-      </c>
-      <c r="AZ14">
-        <v>0.125</v>
-      </c>
-      <c r="BA14">
-        <v>0.125</v>
-      </c>
-      <c r="BB14">
-        <v>0.125</v>
-      </c>
-      <c r="BC14">
-        <v>0.125</v>
-      </c>
-      <c r="BD14">
-        <v>0.125</v>
       </c>
     </row>
   </sheetData>
